--- a/Simulation_Data/RET_Data.xlsx
+++ b/Simulation_Data/RET_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\MATLAB\DNV matlab code\Simulation_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4B94AA-86AC-40AF-BFE8-C7597346CC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE2A92B-F9F6-46FD-86D7-7BD8DE10AD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9075" yWindow="0" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="600" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,16 @@
     <t>'v_ret'</t>
   </si>
   <si>
-    <t>RENER2024</t>
-  </si>
-  <si>
-    <t>RENER2024_Corrected</t>
-  </si>
-  <si>
-    <t>x3M_Case_2</t>
-  </si>
-  <si>
-    <t>x3M_Case_3</t>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t>AAP_Corrected</t>
+  </si>
+  <si>
+    <t>ThreeM</t>
+  </si>
+  <si>
+    <t>ORE</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Simulation_Data/RET_Data.xlsx
+++ b/Simulation_Data/RET_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\MATLAB\DNV matlab code\Simulation_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE2A92B-F9F6-46FD-86D7-7BD8DE10AD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FFDBD3-DCE0-468C-A685-237512225AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="600" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="2190" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +401,7 @@
         <v>13007000000000</v>
       </c>
       <c r="C2" s="1">
-        <v>7040000000000</v>
+        <v>5900000000000</v>
       </c>
       <c r="D2" s="1">
         <v>3.206E+18</v>
@@ -418,7 +418,7 @@
         <v>4.97</v>
       </c>
       <c r="C3">
-        <v>4.9462599999999997</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D3">
         <v>7.41</v>

--- a/Simulation_Data/RET_Data.xlsx
+++ b/Simulation_Data/RET_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\MATLAB\DNV matlab code\Simulation_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FFDBD3-DCE0-468C-A685-237512225AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE3F928-CA46-4E38-9FA2-B86EEFB37D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2190" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="0" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
